--- a/execucoes.xlsx
+++ b/execucoes.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/otaviobonder/WebstormProjects/SMA/t1-sma/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DEAF69C-4F57-634B-8FB6-5101FDD4288A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E941E2-BDDA-7646-885D-C9162604518E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{89EA8BC4-3B56-2640-8659-FA046872D9B1}"/>
+    <workbookView xWindow="-1820" yWindow="-20500" windowWidth="33600" windowHeight="19400" xr2:uid="{89EA8BC4-3B56-2640-8659-FA046872D9B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>Q0</t>
   </si>
@@ -47,12 +47,6 @@
     <t>Q3</t>
   </si>
   <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Q5</t>
-  </si>
-  <si>
     <t>Tempo total</t>
   </si>
   <si>
@@ -62,10 +56,10 @@
     <t>Média</t>
   </si>
   <si>
-    <t>G/G/2/5</t>
+    <t>Q1 - G/G/2/3</t>
   </si>
   <si>
-    <t>G/G/1/5</t>
+    <t>Q2 - G/G/1/3</t>
   </si>
 </sst>
 </file>
@@ -159,13 +153,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -176,6 +167,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -494,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01ADFB96-27CB-BA40-AFEC-21FACBD2ADE4}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -512,127 +506,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="A1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5">
+        <v>5</v>
+      </c>
+      <c r="B2" s="10">
         <v>1</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10">
         <v>3</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10">
         <v>4</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5">
+      <c r="I2" s="10"/>
+      <c r="J2" s="10">
         <v>5</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="M2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="4">
-        <v>171375.29</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4">
-        <v>171224.50908332001</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4">
-        <v>171409.73846621701</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4">
-        <v>171503.82655480501</v>
-      </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4">
-        <v>171423.47093830499</v>
-      </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="7">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5">
+        <v>95167.294803997895</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5">
+        <v>95302.874672769802</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5">
+        <v>95239.743423466804</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5">
+        <v>95321.759013311006</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5">
+        <v>95288.145381855298</v>
+      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="6">
         <f>AVERAGE(B3:K3)</f>
-        <v>171387.36700852943</v>
-      </c>
-      <c r="M3" s="8"/>
+        <v>95263.963459080172</v>
+      </c>
+      <c r="M3" s="7"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3">
-        <v>3</v>
+        <v>1965.3945100113001</v>
       </c>
       <c r="C4" s="2">
-        <f>B4/$B$3</f>
-        <v>1.7505440836890778E-5</v>
+        <f t="shared" ref="C4:C7" si="0">B4/$B$3</f>
+        <v>2.0651995142439792E-2</v>
       </c>
       <c r="D4" s="3">
-        <v>3</v>
+        <v>1980.86517744302</v>
       </c>
       <c r="E4" s="2">
-        <f>D4/$D$3</f>
-        <v>1.7520856190863201E-5</v>
+        <f t="shared" ref="E4:E7" si="1">D4/$D$3</f>
+        <v>2.0784946773583508E-2</v>
       </c>
       <c r="F4" s="3">
-        <v>3</v>
+        <v>2006.43467898422</v>
       </c>
       <c r="G4" s="2">
-        <f>F4/$F$3</f>
-        <v>1.750192274280418E-5</v>
+        <f t="shared" ref="G4:G7" si="2">F4/$F$3</f>
+        <v>2.1067199541508215E-2</v>
       </c>
       <c r="H4" s="3">
-        <v>3</v>
+        <v>1958.1065523314101</v>
       </c>
       <c r="I4" s="2">
-        <f>H4/$H$3</f>
-        <v>1.7492321076820599E-5</v>
+        <f t="shared" ref="I4:I7" si="3">H4/$H$3</f>
+        <v>2.0542073211825374E-2</v>
       </c>
       <c r="J4" s="3">
-        <v>3</v>
+        <v>1967.89705754749</v>
       </c>
       <c r="K4" s="2">
-        <f>J4/$J$3</f>
-        <v>1.7500520690540064E-5</v>
-      </c>
-      <c r="L4" s="6">
+        <f t="shared" ref="K4:K7" si="4">J4/$J$3</f>
+        <v>2.065206589614468E-2</v>
+      </c>
+      <c r="L4" s="4">
         <f>AVERAGE(B4,D4,F4,H4,J4)</f>
-        <v>3</v>
+        <v>1975.7395952634881</v>
       </c>
       <c r="M4" s="2">
         <f>AVERAGE(C4,E4,G4,I4,K4)</f>
-        <v>1.7504212307583766E-5</v>
+        <v>2.0739656113100316E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -640,47 +634,47 @@
         <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>4.2656280679999901</v>
+        <v>53023.137203417798</v>
       </c>
       <c r="C5" s="2">
-        <f>B5/$B$3</f>
-        <v>2.4890566592184846E-5</v>
+        <f t="shared" si="0"/>
+        <v>0.55715713378867993</v>
       </c>
       <c r="D5" s="3">
-        <v>5.7594978230000002</v>
+        <v>53540.162786874702</v>
       </c>
       <c r="E5" s="2">
-        <f>D5/$D$3</f>
-        <v>3.3637111029457563E-5</v>
+        <f t="shared" si="1"/>
+        <v>0.56178958893642217</v>
       </c>
       <c r="F5" s="3">
-        <v>6.5251091809999897</v>
+        <v>53488.6999301822</v>
       </c>
       <c r="G5" s="2">
-        <f>F5/$F$3</f>
-        <v>3.8067318924741359E-5</v>
+        <f t="shared" si="2"/>
+        <v>0.56162162987308861</v>
       </c>
       <c r="H5" s="3">
-        <v>2.558432255</v>
+        <v>53206.098121272502</v>
       </c>
       <c r="I5" s="2">
-        <f>H5/$H$3</f>
-        <v>1.4917639485918051E-5</v>
+        <f t="shared" si="3"/>
+        <v>0.55817369163154706</v>
       </c>
       <c r="J5" s="3">
-        <v>9.8016123428000004</v>
+        <v>53472.203045267001</v>
       </c>
       <c r="K5" s="2">
-        <f>J5/$J$3</f>
-        <v>5.7177773201941429E-5</v>
-      </c>
-      <c r="L5" s="6">
-        <f t="shared" ref="L5:L9" si="0">AVERAGE(B5,D5,F5,H5,J5)</f>
-        <v>5.7820559339599971</v>
+        <f t="shared" si="4"/>
+        <v>0.56116322582398737</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" ref="L5:L7" si="5">AVERAGE(B5,D5,F5,H5,J5)</f>
+        <v>53346.060217402832</v>
       </c>
       <c r="M5" s="2">
         <f>AVERAGE(C5,E5,G5,I5,K5)</f>
-        <v>3.3738081846848656E-5</v>
+        <v>0.55998105401074505</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -688,47 +682,47 @@
         <v>2</v>
       </c>
       <c r="B6" s="3">
-        <v>9.4411122141999897</v>
+        <v>39638.933753602003</v>
       </c>
       <c r="C6" s="2">
-        <f>B6/$B$3</f>
-        <v>5.5090277100041605E-5</v>
+        <f t="shared" si="0"/>
+        <v>0.41651844612417005</v>
       </c>
       <c r="D6" s="3">
-        <v>10.079113742200001</v>
+        <v>39282.983398762299</v>
       </c>
       <c r="E6" s="2">
-        <f>D6/$D$3</f>
-        <v>5.8864900802813083E-5</v>
+        <f t="shared" si="1"/>
+        <v>0.41219095996467714</v>
       </c>
       <c r="F6" s="3">
-        <v>10.633857750000001</v>
+        <v>39245.3889547953</v>
       </c>
       <c r="G6" s="2">
-        <f>F6/$F$3</f>
-        <v>6.2037652266156495E-5</v>
+        <f t="shared" si="2"/>
+        <v>0.41206945277348728</v>
       </c>
       <c r="H6" s="3">
-        <v>6.9712532282000002</v>
+        <v>39648.689905941697</v>
       </c>
       <c r="I6" s="2">
-        <f>H6/$H$3</f>
-        <v>4.06477999251655E-5</v>
+        <f t="shared" si="3"/>
+        <v>0.41594584821294622</v>
       </c>
       <c r="J6" s="3">
-        <v>11.355057774999899</v>
+        <v>39377.700453151898</v>
       </c>
       <c r="K6" s="2">
-        <f>J6/$J$3</f>
-        <v>6.6239807844554517E-5</v>
-      </c>
-      <c r="L6" s="6">
-        <f t="shared" si="0"/>
-        <v>9.6960789419199784</v>
+        <f t="shared" si="4"/>
+        <v>0.41324868162089523</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="5"/>
+        <v>39438.739293250641</v>
       </c>
       <c r="M6" s="2">
         <f>AVERAGE(C6,E6,G6,I6,K6)</f>
-        <v>5.6576087587746235E-5</v>
+        <v>0.41399467773923515</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -736,520 +730,328 @@
         <v>3</v>
       </c>
       <c r="B7" s="3">
-        <v>252.35563285294899</v>
+        <v>539.82933696675502</v>
       </c>
       <c r="C7" s="2">
-        <f>B7/$B$3</f>
-        <v>1.4725322002544766E-3</v>
+        <f t="shared" si="0"/>
+        <v>5.672424944709863E-3</v>
       </c>
       <c r="D7" s="3">
-        <v>241.095227183297</v>
+        <v>498.86330968973499</v>
       </c>
       <c r="E7" s="2">
-        <f>D7/$D$3</f>
-        <v>1.4080649345940132E-3</v>
+        <f t="shared" si="1"/>
+        <v>5.234504325316764E-3</v>
       </c>
       <c r="F7" s="3">
-        <v>233.11978320384699</v>
+        <v>499.21985950510401</v>
       </c>
       <c r="G7" s="2">
-        <f>F7/$F$3</f>
-        <v>1.3600148118176633E-3</v>
+        <f t="shared" si="2"/>
+        <v>5.2417178119160872E-3</v>
       </c>
       <c r="H7" s="3">
-        <v>256.63869441999299</v>
+        <v>508.86443376537602</v>
       </c>
       <c r="I7" s="2">
-        <f>H7/$H$3</f>
-        <v>1.4964021478435215E-3</v>
+        <f t="shared" si="3"/>
+        <v>5.3383869436811034E-3</v>
       </c>
       <c r="J7" s="3">
-        <v>233.17686246378301</v>
+        <v>470.34482588880797</v>
       </c>
       <c r="K7" s="2">
-        <f>J7/$J$3</f>
-        <v>1.3602388353675498E-3</v>
-      </c>
-      <c r="L7" s="6">
-        <f t="shared" si="0"/>
-        <v>243.27724002477379</v>
+        <f t="shared" si="4"/>
+        <v>4.9360266589716911E-3</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" si="5"/>
+        <v>503.42435316315562</v>
       </c>
       <c r="M7" s="2">
         <f>AVERAGE(C7,E7,G7,I7,K7)</f>
-        <v>1.4194505859754449E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+        <v>5.2846121369191021E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="10">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10">
+        <v>2</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10">
+        <v>3</v>
+      </c>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10">
         <v>4</v>
       </c>
-      <c r="B8" s="3">
-        <v>68377.933372042098</v>
-      </c>
-      <c r="C8" s="2">
-        <f>B8/$B$3</f>
-        <v>0.39899528906438086</v>
-      </c>
-      <c r="D8" s="3">
-        <v>68137.351349517005</v>
-      </c>
-      <c r="E8" s="2">
-        <f>D8/$D$3</f>
-        <v>0.39794157807373537</v>
-      </c>
-      <c r="F8" s="3">
-        <v>68424.059606461204</v>
-      </c>
-      <c r="G8" s="2">
-        <f>F8/$F$3</f>
-        <v>0.39918420166043739</v>
-      </c>
-      <c r="H8" s="3">
-        <v>68385.977598008103</v>
-      </c>
-      <c r="I8" s="2">
-        <f>H8/$H$3</f>
-        <v>0.39874315909887281</v>
-      </c>
-      <c r="J8" s="3">
-        <v>68609.964284975897</v>
-      </c>
-      <c r="K8" s="2">
-        <f>J8/$J$3</f>
-        <v>0.40023669984881183</v>
-      </c>
-      <c r="L8" s="6">
-        <f t="shared" si="0"/>
-        <v>68387.057242200855</v>
-      </c>
-      <c r="M8" s="2">
-        <f>AVERAGE(C8,E8,G8,I8,K8)</f>
-        <v>0.39902018554924767</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="I11" s="10"/>
+      <c r="J11" s="10">
         <v>5</v>
       </c>
-      <c r="B9" s="3">
-        <v>102724.67385527999</v>
-      </c>
-      <c r="C9" s="2">
-        <f>B9/$B$3</f>
-        <v>0.59941356688750158</v>
-      </c>
-      <c r="D9" s="3">
-        <v>102823.40264959801</v>
-      </c>
-      <c r="E9" s="2">
-        <f>D9/$D$3</f>
-        <v>0.60051801695960971</v>
-      </c>
-      <c r="F9" s="3">
-        <v>102728.858314426</v>
-      </c>
-      <c r="G9" s="2">
-        <f>F9/$F$3</f>
-        <v>0.59931751389185361</v>
-      </c>
-      <c r="H9" s="3">
-        <v>102845.33931713901</v>
-      </c>
-      <c r="I9" s="2">
-        <f>H9/$H$3</f>
-        <v>0.59966789886331895</v>
-      </c>
-      <c r="J9" s="3">
-        <v>102551.237465346</v>
-      </c>
-      <c r="K9" s="2">
-        <f>J9/$J$3</f>
-        <v>0.59823335103425834</v>
-      </c>
-      <c r="L9" s="6">
-        <f t="shared" si="0"/>
-        <v>102734.70232035781</v>
-      </c>
-      <c r="M9" s="2">
-        <f>AVERAGE(C9,E9,G9,I9,K9)</f>
-        <v>0.59943006952730848</v>
-      </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="M11" s="9"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="5"/>
+      <c r="A12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="5">
+        <v>95167.294803997895</v>
+      </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="D12" s="5">
+        <v>95302.874672769802</v>
+      </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
+      <c r="F12" s="5">
+        <v>95239.743423466804</v>
+      </c>
       <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="H12" s="5">
+        <v>95321.759013311006</v>
+      </c>
       <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="J12" s="5">
+        <v>95288.145381855298</v>
+      </c>
       <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
+      <c r="L12" s="6">
+        <f>AVERAGE(B12:K12)</f>
+        <v>95263.963459080172</v>
+      </c>
+      <c r="M12" s="7"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="5">
-        <v>1</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5">
-        <v>2</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5">
-        <v>3</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5">
-        <v>4</v>
-      </c>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5">
-        <v>5</v>
-      </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="M13" s="10"/>
+        <v>0</v>
+      </c>
+      <c r="B13" s="3">
+        <v>6.0978985667999996</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" ref="C13:C16" si="6">B13/$B$12</f>
+        <v>6.4075569021468411E-5</v>
+      </c>
+      <c r="D13" s="3">
+        <v>6.6597544979999999</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" ref="E13:E16" si="7">D13/$D$12</f>
+        <v>6.9879891040714248E-5</v>
+      </c>
+      <c r="F13" s="3">
+        <v>6.6832983842999996</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" ref="G13:G16" si="8">F13/$F$12</f>
+        <v>7.0173418617728596E-5</v>
+      </c>
+      <c r="H13" s="3">
+        <v>5.7382510758</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" ref="I13:I16" si="9">H13/$H$12</f>
+        <v>6.0198753518582195E-5</v>
+      </c>
+      <c r="J13" s="3">
+        <v>6.0812127419999999</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" ref="K13:K16" si="10">J13/$J$12</f>
+        <v>6.3819195112154847E-5</v>
+      </c>
+      <c r="L13" s="4">
+        <f>AVERAGE(B13,D13,F13,H13,J13)</f>
+        <v>6.2520830533799998</v>
+      </c>
+      <c r="M13" s="2">
+        <f>AVERAGE(C13,E13,G13,I13,K13)</f>
+        <v>6.5629365462129653E-5</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="4">
-        <v>150032.72563546299</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4">
-        <v>150076.03250525901</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4">
-        <v>149872.171170833</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4">
-        <v>149985.95920515599</v>
-      </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4">
-        <v>149879.93444504999</v>
-      </c>
-      <c r="K14" s="4"/>
-      <c r="L14" s="7">
-        <f>AVERAGE(B14:K14)</f>
-        <v>149969.36459235218</v>
-      </c>
-      <c r="M14" s="8"/>
+        <v>1</v>
+      </c>
+      <c r="B14" s="3">
+        <v>468.95199265984201</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="6"/>
+        <v>4.9276591672136267E-3</v>
+      </c>
+      <c r="D14" s="3">
+        <v>493.35621649553099</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="7"/>
+        <v>5.1767191513321063E-3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>495.25204589899198</v>
+      </c>
+      <c r="G14" s="2">
+        <f t="shared" si="8"/>
+        <v>5.2000564900405149E-3</v>
+      </c>
+      <c r="H14" s="3">
+        <v>544.78194265833599</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="9"/>
+        <v>5.715189777207752E-3</v>
+      </c>
+      <c r="J14" s="3">
+        <v>474.837504703984</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="10"/>
+        <v>4.9831750088233139E-3</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" ref="L14:L16" si="11">AVERAGE(B14,D14,F14,H14,J14)</f>
+        <v>495.43594048333699</v>
+      </c>
+      <c r="M14" s="2">
+        <f>AVERAGE(C14,E14,G14,I14,K14)</f>
+        <v>5.2005599189234621E-3</v>
+      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B15" s="3">
-        <v>2069.8519949664501</v>
+        <v>37022.863185465903</v>
       </c>
       <c r="C15" s="2">
-        <f>B15/$B$14</f>
-        <v>1.3796003413252678E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.38902926957960149</v>
       </c>
       <c r="D15" s="3">
-        <v>2082.3057576519</v>
+        <v>37662.710644851999</v>
       </c>
       <c r="E15" s="2">
-        <f>D15/$D$14</f>
-        <v>1.3875005374885101E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.39518966006188155</v>
       </c>
       <c r="F15" s="3">
-        <v>2056.5800874827901</v>
+        <v>37793.705848471902</v>
       </c>
       <c r="G15" s="2">
-        <f>F15/$F$14</f>
-        <v>1.3722227892051958E-2</v>
+        <f t="shared" si="8"/>
+        <v>0.39682704394140189</v>
       </c>
       <c r="H15" s="3">
-        <v>2079.4310600748199</v>
+        <v>37846.104374670897</v>
       </c>
       <c r="I15" s="2">
-        <f>H15/$H$14</f>
-        <v>1.3864171493749638E-2</v>
+        <f t="shared" si="9"/>
+        <v>0.39703531246612811</v>
       </c>
       <c r="J15" s="3">
-        <v>2012.74718802496</v>
+        <v>37523.983645147302</v>
       </c>
       <c r="K15" s="2">
-        <f>J15/$J$14</f>
-        <v>1.3429063706742459E-2</v>
-      </c>
-      <c r="L15" s="6">
-        <f>AVERAGE(B15,D15,F15,H15,J15)</f>
-        <v>2060.183217640184</v>
+        <f t="shared" si="10"/>
+        <v>0.39379487862603096</v>
+      </c>
+      <c r="L15" s="4">
+        <f t="shared" si="11"/>
+        <v>37569.873539721601</v>
       </c>
       <c r="M15" s="2">
         <f>AVERAGE(C15,E15,G15,I15,K15)</f>
-        <v>1.3737294376136366E-2</v>
+        <v>0.39437523293500881</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B16" s="3">
-        <v>96099.129352538497</v>
+        <v>57669.381727305299</v>
       </c>
       <c r="C16" s="2">
-        <f>B16/$B$14</f>
-        <v>0.6405211192792174</v>
+        <f t="shared" si="6"/>
+        <v>0.60597899568416291</v>
       </c>
       <c r="D16" s="3">
-        <v>95930.871318476493</v>
+        <v>57140.148056924198</v>
       </c>
       <c r="E16" s="2">
-        <f>D16/$D$14</f>
-        <v>0.63921513460262125</v>
+        <f t="shared" si="7"/>
+        <v>0.59956374089574482</v>
       </c>
       <c r="F16" s="3">
-        <v>95740.298266202095</v>
+        <v>56944.1022307116</v>
       </c>
       <c r="G16" s="2">
-        <f>F16/$F$14</f>
-        <v>0.63881304660003724</v>
+        <f t="shared" si="8"/>
+        <v>0.59790272614993978</v>
       </c>
       <c r="H16" s="3">
-        <v>95979.847806579593</v>
+        <v>56925.134444905903</v>
       </c>
       <c r="I16" s="2">
-        <f>H16/$H$14</f>
-        <v>0.63992555246651472</v>
+        <f t="shared" si="9"/>
+        <v>0.59718929900314488</v>
       </c>
       <c r="J16" s="3">
-        <v>95782.005370019295</v>
+        <v>57283.243019261899</v>
       </c>
       <c r="K16" s="2">
-        <f>J16/$J$14</f>
-        <v>0.63905822833900128</v>
-      </c>
-      <c r="L16" s="6">
-        <f t="shared" ref="L16:L20" si="1">AVERAGE(B16,D16,F16,H16,J16)</f>
-        <v>95906.430422763195</v>
+        <f t="shared" si="10"/>
+        <v>0.60115812717003236</v>
+      </c>
+      <c r="L16" s="4">
+        <f t="shared" si="11"/>
+        <v>57192.401895821778</v>
       </c>
       <c r="M16" s="2">
         <f>AVERAGE(C16,E16,G16,I16,K16)</f>
-        <v>0.6395066162574784</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="3">
-        <v>51588.330139527599</v>
-      </c>
-      <c r="C17" s="2">
-        <f>B17/$B$14</f>
-        <v>0.34384718347964044</v>
-      </c>
-      <c r="D17" s="3">
-        <v>51800.933813538497</v>
-      </c>
-      <c r="E17" s="2">
-        <f>D17/$D$14</f>
-        <v>0.34516460056154052</v>
-      </c>
-      <c r="F17" s="3">
-        <v>51800.390667875901</v>
-      </c>
-      <c r="G17" s="2">
-        <f>F17/$F$14</f>
-        <v>0.34563048138423785</v>
-      </c>
-      <c r="H17" s="3">
-        <v>51636.501410932498</v>
-      </c>
-      <c r="I17" s="2">
-        <f>H17/$H$14</f>
-        <v>0.34427556875708815</v>
-      </c>
-      <c r="J17" s="3">
-        <v>51831.136694581102</v>
-      </c>
-      <c r="K17" s="2">
-        <f>J17/$J$14</f>
-        <v>0.34581771660424493</v>
-      </c>
-      <c r="L17" s="6">
-        <f t="shared" si="1"/>
-        <v>51731.458545291112</v>
-      </c>
-      <c r="M17" s="2">
-        <f>AVERAGE(C17,E17,G17,I17,K17)</f>
-        <v>0.34494711015735036</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="3">
-        <v>271.44100286601798</v>
-      </c>
-      <c r="C18" s="2">
-        <f>B18/$B$14</f>
-        <v>1.8092119683644401E-3</v>
-      </c>
-      <c r="D18" s="3">
-        <v>258.65854444754399</v>
-      </c>
-      <c r="E18" s="2">
-        <f>D18/$D$14</f>
-        <v>1.7235166743795683E-3</v>
-      </c>
-      <c r="F18" s="3">
-        <v>272.63646041800098</v>
-      </c>
-      <c r="G18" s="2">
-        <f>F18/$F$14</f>
-        <v>1.819126648317079E-3</v>
-      </c>
-      <c r="H18" s="3">
-        <v>286.542841661252</v>
-      </c>
-      <c r="I18" s="2">
-        <f>H18/$H$14</f>
-        <v>1.9104644406701349E-3</v>
-      </c>
-      <c r="J18" s="3">
-        <v>251.90808142740599</v>
-      </c>
-      <c r="K18" s="2">
-        <f>J18/$J$14</f>
-        <v>1.6807325300756803E-3</v>
-      </c>
-      <c r="L18" s="6">
-        <f t="shared" si="1"/>
-        <v>268.23738616404415</v>
-      </c>
-      <c r="M18" s="2">
-        <f>AVERAGE(C18,E18,G18,I18,K18)</f>
-        <v>1.7886104523613805E-3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B19" s="3">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2">
-        <f>B19/$B$14</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="2">
-        <f>D19/$D$14</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="2">
-        <f>F19/$F$14</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="3">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2">
-        <f>H19/$H$14</f>
-        <v>0</v>
-      </c>
-      <c r="J19" s="3">
-        <v>0</v>
-      </c>
-      <c r="K19" s="2">
-        <f>J19/$J$14</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="2">
-        <f>AVERAGE(C19,E19,G19,I19,K19)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="3">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2">
-        <f>B20/$B$14</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0</v>
-      </c>
-      <c r="E20" s="2">
-        <f>D20/$D$14</f>
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="2">
-        <f>F20/$F$14</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <f>H20/$H$14</f>
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="2">
-        <f>J20/$J$14</f>
-        <v>0</v>
-      </c>
-      <c r="L20" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="2">
-        <f>AVERAGE(C20,E20,G20,I20,K20)</f>
-        <v>0</v>
+        <v>0.60035857778060497</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
     <mergeCell ref="L3:M3"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="A12:M12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="A10:M10"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
@@ -1257,16 +1059,16 @@
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L2:M2"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
